--- a/target/classes/EXCELs/khanh.xlsx
+++ b/target/classes/EXCELs/khanh.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -41,27 +41,24 @@
     <t>1</t>
   </si>
   <si>
-    <t>HD002</t>
-  </si>
-  <si>
-    <t>Trần Văn C</t>
+    <t>HD001</t>
+  </si>
+  <si>
+    <t>Lê Thị B</t>
+  </si>
+  <si>
+    <t>2025-06-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>600000.0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2025-06-05 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2025-06-07 00:00:00.0</t>
-  </si>
-  <si>
-    <t>Lê Thị B</t>
-  </si>
-  <si>
-    <t>550000.0</t>
-  </si>
-  <si>
     <t>HD003</t>
   </si>
   <si>
@@ -75,21 +72,6 @@
   </si>
   <si>
     <t>700000.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>HD001</t>
-  </si>
-  <si>
-    <t>2025-06-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2025-06-03 00:00:00.0</t>
-  </si>
-  <si>
-    <t>600000.0</t>
   </si>
 </sst>
 </file>
@@ -134,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,71 +159,45 @@
         <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
